--- a/accessdb/templateSheets/02defFamSheet.xlsx
+++ b/accessdb/templateSheets/02defFamSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\win11vm\networkdb\Registry\defFamSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovial\Documents\Workspace\GitHub\cbcef-frdb\accessdb\templateSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01539B87-FCB8-4032-9EF9-23A7EE7A8417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4526EE-67DB-4443-AD30-9F00869F9E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{691864EF-CD39-4A4F-A743-1915A8367D6B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="FamilyRegister" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FamilyRegister!$A$1:$D$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FamilyRegister!$A$1:$D$63</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">FamilyRegister!$A:$D,FamilyRegister!$5:$5</definedName>
   </definedNames>
   <calcPr calcId="181029" iterate="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -180,6 +180,9 @@
   <si>
     <t>പാസ്പോർട്ട് ഫോട്ടോ</t>
   </si>
+  <si>
+    <t>ഈ  വിശ്വാസത്തിലേക്ക് വന്നപ്പോഴത്തെ സഭ (മാതൃ സഭ)</t>
+  </si>
 </sst>
 </file>
 
@@ -269,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -351,6 +354,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,7 +700,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>829235</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>201706</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3918775" cy="1759323"/>
@@ -1053,8 +1062,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7ED75F74-C5D4-4B51-8775-6C43A3A144B1}" name="Table4" displayName="Table4" ref="A5:D47" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
-  <autoFilter ref="A5:D47" xr:uid="{7ED75F74-C5D4-4B51-8775-6C43A3A144B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7ED75F74-C5D4-4B51-8775-6C43A3A144B1}" name="Table4" displayName="Table4" ref="A5:D48" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
+  <autoFilter ref="A5:D48" xr:uid="{7ED75F74-C5D4-4B51-8775-6C43A3A144B1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6D668163-801A-41BB-B009-B9F1EBB13689}" name="Sl. No." totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="2" xr3:uid="{BF741685-7980-46D2-B60C-07F0984CB8EA}" name="Description" dataDxfId="3" totalsRowDxfId="2"/>
@@ -1362,11 +1371,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0EA35-602C-4E1F-A94E-665F1CEBDA8B}">
-  <dimension ref="A1:D1018"/>
+  <dimension ref="A1:D1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:D46"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1672,7 +1679,7 @@
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
     </row>
-    <row r="34" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>21</v>
       </c>
@@ -1684,68 +1691,70 @@
     </row>
     <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
     </row>
     <row r="36" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
     </row>
     <row r="38" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
     </row>
     <row r="40" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="20" t="s">
-        <v>35</v>
+      <c r="A41" s="16">
+        <v>28</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -1753,7 +1762,7 @@
     <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -1761,7 +1770,7 @@
     <row r="43" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -1769,7 +1778,7 @@
     <row r="44" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -1777,90 +1786,93 @@
     <row r="45" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16">
-        <v>29</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>49</v>
+      <c r="A46" s="16"/>
+      <c r="B46" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
-        <v>30</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
     </row>
     <row r="48" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="A48" s="16">
+        <v>30</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
+      <c r="A50" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="7"/>
+      <c r="A51" s="24"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="6"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
+      <c r="A55" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
@@ -1869,32 +1881,31 @@
     </row>
     <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="C59" s="7"/>
+      <c r="A59" s="2"/>
+      <c r="C59" s="15"/>
     </row>
     <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
-      <c r="C60" s="15"/>
+      <c r="C60" s="7"/>
     </row>
     <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="C61" s="15"/>
     </row>
     <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="15"/>
+      <c r="A62" s="7"/>
+      <c r="C62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
+      <c r="A63" s="2"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="15"/>
+    </row>
+    <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="8"/>
       <c r="C64" s="11"/>
@@ -1906,7 +1917,7 @@
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
     </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="8"/>
       <c r="C66" s="11"/>
@@ -7618,7 +7629,13 @@
       <c r="C1017" s="11"/>
       <c r="D1017" s="11"/>
     </row>
-    <row r="1018" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1018" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1018" s="10"/>
+      <c r="B1018" s="8"/>
+      <c r="C1018" s="11"/>
+      <c r="D1018" s="11"/>
+    </row>
+    <row r="1019" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/accessdb/templateSheets/02defFamSheet.xlsx
+++ b/accessdb/templateSheets/02defFamSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovial\Documents\Workspace\GitHub\cbcef-frdb\accessdb\templateSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\win11vm\networkdb\Registry\defFamSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4526EE-67DB-4443-AD30-9F00869F9E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C73A7F9-ACDB-4753-BE58-438B1EB81D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{691864EF-CD39-4A4F-A743-1915A8367D6B}"/>
   </bookViews>
@@ -325,12 +325,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
@@ -355,11 +349,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,7 +378,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -392,7 +392,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1373,7 +1373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0EA35-602C-4E1F-A94E-665F1CEBDA8B}">
   <dimension ref="A1:D1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1386,17 +1388,17 @@
     <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="5"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="27"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="27"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="27"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -1404,16 +1406,16 @@
       <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1424,8 +1426,8 @@
       <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
@@ -1434,8 +1436,8 @@
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
@@ -1444,8 +1446,8 @@
       <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
@@ -1454,8 +1456,8 @@
       <c r="B9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
@@ -1464,8 +1466,8 @@
       <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
@@ -1474,8 +1476,8 @@
       <c r="B11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
@@ -1484,8 +1486,8 @@
       <c r="B12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
@@ -1494,8 +1496,8 @@
       <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
@@ -1504,8 +1506,8 @@
       <c r="B14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
@@ -1514,8 +1516,8 @@
       <c r="B15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
@@ -1524,8 +1526,8 @@
       <c r="B16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
@@ -1534,8 +1536,8 @@
       <c r="B17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
@@ -1544,8 +1546,8 @@
       <c r="B18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
@@ -1554,8 +1556,8 @@
       <c r="B19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
@@ -1564,8 +1566,8 @@
       <c r="B20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
@@ -1574,64 +1576,64 @@
       <c r="B21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
@@ -1640,18 +1642,18 @@
       <c r="B29" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>18</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
@@ -1660,154 +1662,154 @@
       <c r="B31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>20</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>21</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>22</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>23</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>24</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>25</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>26</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
     </row>
     <row r="40" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>27</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>28</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
     </row>
     <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
     </row>
     <row r="43" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
     </row>
     <row r="46" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>29</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
@@ -1816,8 +1818,8 @@
       <c r="B48" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
     </row>
     <row r="49" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
@@ -1826,19 +1828,19 @@
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
+      <c r="A51" s="22"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="1"/>
@@ -1846,7 +1848,7 @@
       <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B53" s="1"/>
@@ -1854,7 +1856,7 @@
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="8"/>
@@ -1862,14 +1864,14 @@
       <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
       <c r="D56" s="13"/>
